--- a/docs/tp/Clients_FE_TP.xlsx
+++ b/docs/tp/Clients_FE_TP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D592AA-C192-4CF5-A4B2-963F924E819E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D3E05-063A-4782-A7DB-BBEC3285E25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28740" yWindow="-5025" windowWidth="15870" windowHeight="25320" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -143,9 +143,6 @@
     <t xml:space="preserve">Verificare che si apra la maschera di censimento con i campi prevalorizzati </t>
   </si>
   <si>
-    <t xml:space="preserve">Inserire i dati mancanti e premere avanti&gt;Contatti inserire la mail e modificare l'indirizzo della sede legale </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificare che l'operazione vada a buon fine  </t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t xml:space="preserve">Censimento Nuovo cliente PG (2) </t>
   </si>
   <si>
-    <t>Censimento Nuovo cliente PG (3)</t>
-  </si>
-  <si>
     <t>Censimento Nuovo cliente PG (4)</t>
   </si>
   <si>
@@ -204,13 +198,28 @@
   </si>
   <si>
     <t xml:space="preserve">Ricercare il cliente appena censito nella buca di ricerca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Censimento Nuovo cliente PG (3) </t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (9)</t>
+  </si>
+  <si>
+    <t>Inserire i dati mancanti e premere avanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contatti : inserire la mail e modificare l'indirizzo della sede legale </t>
+  </si>
+  <si>
+    <t>Censimento Nuovo cliente PG (10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +250,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -297,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -627,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +898,7 @@
     </row>
     <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -907,15 +925,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -938,179 +956,241 @@
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/tp/Clients_FE_TP.xlsx
+++ b/docs/tp/Clients_FE_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D3E05-063A-4782-A7DB-BBEC3285E25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41312019-3A63-40A1-A857-63BC7038677E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28740" yWindow="-5025" windowWidth="15870" windowHeight="25320" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Premere Conferma</t>
   </si>
   <si>
-    <t xml:space="preserve">Verificare che si apra il folder per l'inserimento della visura camerale - inserire l'autocertificazione e verificare che l'inserimento venga bloccato - cancellare il documento e inserire la visura - procedere - verificre che l'unico venga stampato correttamente </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificare che venga trovato e che si possa accedere alla scheda </t>
   </si>
   <si>
@@ -170,12 +167,6 @@
     <t xml:space="preserve">Verificare che l'operazione vada a buon fine e che la plein air venga salvata correttamente nel folder </t>
   </si>
   <si>
-    <t xml:space="preserve">DA </t>
-  </si>
-  <si>
-    <t>Verificare che la scheda del cliente riporti tutte le informazioni inserite in fase di censimento; verificare il dettaglio anagrafica  - verificare il folder (Unico + plein Air)</t>
-  </si>
-  <si>
     <t>Censimento Nuovo cliente PG (1)</t>
   </si>
   <si>
@@ -212,7 +203,13 @@
     <t xml:space="preserve">Contatti : inserire la mail e modificare l'indirizzo della sede legale </t>
   </si>
   <si>
-    <t>Censimento Nuovo cliente PG (10)</t>
+    <t>Verificare che si apra il folder per l'inserimento della visura camerale - inserire l'autocertificazione e verificare che l'inserimento venga bloccato</t>
+  </si>
+  <si>
+    <t>Inserire la visura e procedere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificre che l'unico venga stampato correttamente </t>
   </si>
 </sst>
 </file>
@@ -645,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +895,7 @@
     </row>
     <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -927,10 +924,10 @@
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>36</v>
@@ -956,10 +953,10 @@
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>36</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>37</v>
@@ -1012,15 +1009,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -1041,15 +1038,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
@@ -1072,13 +1069,13 @@
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
@@ -1101,13 +1098,13 @@
     </row>
     <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
@@ -1130,14 +1127,14 @@
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1157,37 +1154,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/tp/Clients_FE_TP.xlsx
+++ b/docs/tp/Clients_FE_TP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41312019-3A63-40A1-A857-63BC7038677E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10658FB9-C79B-440F-8107-A9F4F633C888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-5025" windowWidth="15870" windowHeight="25320" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tp/Clients_FE_TP.xlsx
+++ b/docs/tp/Clients_FE_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10658FB9-C79B-440F-8107-A9F4F633C888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE224DD5-E7AC-41DD-A015-839A52D34A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -210,6 +210,33 @@
   </si>
   <si>
     <t xml:space="preserve">Verificre che l'unico venga stampato correttamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accedere a MW e Ricercare un cliente </t>
+  </si>
+  <si>
+    <t>Verificare il caricamento corretto della scheda del cliente</t>
+  </si>
+  <si>
+    <t>Modifica cliente PG (1)</t>
+  </si>
+  <si>
+    <t>Modifica cliente PG (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accedere alla modifica e modificare alcuni dati inserendo la PEC il consenso all'invio PEC portare a termine la modifica </t>
+  </si>
+  <si>
+    <t>Verificare che venga richiesto il caricamento del documento d'identità e caricalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nella Customer View </t>
+  </si>
+  <si>
+    <t>Modifica cliente PG (3)</t>
+  </si>
+  <si>
+    <t>Verificare che i consensi/contatti si siano aggiornati correttamente - verificare il folder (unici + documento)</t>
   </si>
 </sst>
 </file>
@@ -311,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +354,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -642,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,8 +1184,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/tp/Clients_FE_TP.xlsx
+++ b/docs/tp/Clients_FE_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE224DD5-E7AC-41DD-A015-839A52D34A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4924CED-475E-41FD-9C0F-7E582A7AEE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tp/Clients_FE_TP.xlsx
+++ b/docs/tp/Clients_FE_TP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4924CED-475E-41FD-9C0F-7E582A7AEE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B258F0B1-3F16-475B-8F7D-D481AA5939B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
+    <sheet name="Bobo" sheetId="2" r:id="rId1"/>
+    <sheet name="Kevin" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -237,6 +238,53 @@
   </si>
   <si>
     <t>Verificare che i consensi/contatti si siano aggiornati correttamente - verificare il folder (unici + documento)</t>
+  </si>
+  <si>
+    <t>Gestione fonte principale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing Clients &gt;Hamburger menu&gt;Gestione fonte principale
+Selezionare alcuni clienti e passarli da una fonte ad un'altra </t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione vada a buon fine e che i referenti riportati nella customer view siano quelli corretti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clienti duplicati </t>
+  </si>
+  <si>
+    <t>Landing Clients&gt;Hamburger menu&gt;Clienti duplicati
+Selezionare i clienti e fonderli</t>
+  </si>
+  <si>
+    <t>Verificare che non venga richiesta la maschera di disambiguazione e che la fusioni avvenga correttamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che si apra la pagiana corretta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che non sia possibile accedere alla scheda del cliente </t>
+  </si>
+  <si>
+    <t>Cancellazione clienti (1)</t>
+  </si>
+  <si>
+    <t>Cancellazione clienti (2)</t>
+  </si>
+  <si>
+    <t>Cancellazione clienti (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Clients aprire l'Hamburger menu&gt;Cancellazione clienti </t>
+  </si>
+  <si>
+    <t>Cancellare alcuni clienti PF e PG (prendersi nota dei nomi)</t>
+  </si>
+  <si>
+    <t>Ricercare i clienti in buca di ricera - accedere alla scheda</t>
+  </si>
+  <si>
+    <t>Pusateri Kevin</t>
   </si>
 </sst>
 </file>
@@ -284,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +354,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +421,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,4 +1353,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>